--- a/biology/Biochimie/Baicaléine/Baicaléine.xlsx
+++ b/biology/Biochimie/Baicaléine/Baicaléine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baical%C3%A9ine</t>
+          <t>Baicaléine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La baicaléine (5,6,7-trihydroxyflavone) est un composé chimique de la famille des flavones, une sous-classe de flavonoïde, isolée pour la première fois de la Scutellaria baicalensis. Sa présence a aussi été détectée dans l'Oroxylum indicum.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baical%C3%A9ine</t>
+          <t>Baicaléine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Propriétés biomédicinales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été montré que la baicaléine inhibe certains types de lipoxygénases[3] et agit comme  anti-inflammatoire[4].
-La baicaléine est inhibiteur du Cytochrome P450 2C9[5](CYP2C9), une enzyme du système cytochrome p450 qui métabolise les médicaments dans le corps.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été montré que la baicaléine inhibe certains types de lipoxygénases et agit comme  anti-inflammatoire.
+La baicaléine est inhibiteur du Cytochrome P450 2C9(CYP2C9), une enzyme du système cytochrome p450 qui métabolise les médicaments dans le corps.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baical%C3%A9ine</t>
+          <t>Baicaléine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Hétérosides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme la plupart des flavonoïdes, la baicaléine est présente dans la nature sous forme d'hétéroside ou elle joue le rôle de l'aglycone. On peut notamment citer :
 la baicaline, son 7-glucuronide ;
